--- a/biology/Neurosciences/Gilles_Fauconnier/Gilles_Fauconnier.xlsx
+++ b/biology/Neurosciences/Gilles_Fauconnier/Gilles_Fauconnier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gilles Fauconnier (né le 19 août 1944 et mort le 3 février 2021[1]) est un linguiste français, chercheur et auteur en science cognitive. Il fut professeur à l'Université de Californie à San Diego (UCSD), au département de Science cognitive.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gilles Fauconnier (né le 19 août 1944 et mort le 3 février 2021) est un linguiste français, chercheur et auteur en science cognitive. Il fut professeur à l'Université de Californie à San Diego (UCSD), au département de Science cognitive.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Influencé par Oswald Ducrot, il a été à l'origine de la théorie des espaces mentaux (mental spaces). Par la suite, avec la collaboration avec Mark Turner, il a fait évoluer cette théorie sous le nom d'intégration conceptuelle (conceptual integration, ou conceptual blending) ; cette théorie rejoint par certains aspects les vues de Ronald Langacker et de George Lakoff.
 </t>
@@ -542,7 +556,9 @@
           <t>Ouvrages publiés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi les ouvrages publiés par Gilles Fauconnier, on peut citer :
 Espaces mentaux : Aspects de la construction du sens dans les langues naturelles, Les Éditions de Minuit, 1984  (ISBN 2-7073-0664-9)
@@ -577,7 +593,9 @@
           <t>Espaces mentaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La théorie des espaces mentaux correspond à celle des mondes possibles en philosophie. La principale différence entre un espace mental et un monde possible est qu'un espace mental ne prétend pas constituer une représentation fidèle de la réalité, mais un modèle cognitif idéalisé.
 </t>
